--- a/sal.xlsx
+++ b/sal.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f>1+ROE*(1-1/DC)</f>
         <v>1.1030857142857142</v>
       </c>

--- a/sal.xlsx
+++ b/sal.xlsx
@@ -15,6 +15,7 @@
     <definedName name="BETA">Sheet1!$B$5</definedName>
     <definedName name="DC">Sheet1!$B$2</definedName>
     <definedName name="DRATE">Sheet1!$B$8</definedName>
+    <definedName name="EPS0">Sheet1!$C$15</definedName>
     <definedName name="ERP">Sheet1!$B$7</definedName>
     <definedName name="GROW1">Sheet1!$B$3</definedName>
     <definedName name="Rf">Sheet1!$B$6</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ROE</t>
   </si>
@@ -60,14 +61,32 @@
     <t>DRATES</t>
   </si>
   <si>
-    <t>PV</t>
+    <t>Growth phase</t>
+  </si>
+  <si>
+    <t>Terminal phase</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Pt6</t>
+  </si>
+  <si>
+    <t>Pt0</t>
+  </si>
+  <si>
+    <t>Present value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +135,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,20 +164,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -439,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>7.9100000000000004E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -505,10 +555,15 @@
       </c>
       <c r="B8" s="3">
         <f>1/(1+Rf+BETA *ERP)</f>
-        <v>0.95582032160792219</v>
+        <v>0.96155192326538708</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -584,7 +639,7 @@
         <v>6.9839857248145547</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -593,56 +648,103 @@
       </c>
       <c r="D18" s="3">
         <f>C18*DRATE</f>
-        <v>0.95582032160792219</v>
+        <v>0.96155192326538708</v>
       </c>
       <c r="E18" s="3">
         <f>D18*DRATE</f>
-        <v>0.91359248719867181</v>
+        <v>0.92458210113536488</v>
       </c>
       <c r="F18" s="3">
         <f>E18*DRATE</f>
-        <v>0.87323026493281597</v>
+        <v>0.88903369756346273</v>
       </c>
       <c r="G18" s="3">
         <f>F18*DRATE</f>
-        <v>0.83465123266585528</v>
+        <v>0.85485206173988604</v>
       </c>
       <c r="H18" s="3">
         <f>G18*DRATE</f>
-        <v>0.79777660963712649</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>0.8219846440733688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
         <f>SUM(D19:H19)</f>
-        <v>25.130400099221777</v>
+        <v>25.602290389904617</v>
       </c>
       <c r="D19" s="3">
         <f>D16*D18</f>
-        <v>4.5086088785063296</v>
+        <v>4.5356448700381229</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ref="E19:H19" si="0">E16*E18</f>
-        <v>4.753659625904989</v>
+        <v>4.8108414490998426</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>5.0120293083496481</v>
+        <v>5.1027353577138719</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>5.2844418331641672</v>
+        <v>5.4123396928275982</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>5.5716604532966452</v>
+        <v>5.7407290202251806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <f>H15*(1+Rf)</f>
+        <v>15.099027937762827</v>
+      </c>
+      <c r="D23" s="4">
+        <f>EPS0*GROW1^5 *(1+Rf)</f>
+        <v>15.099027937762827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickTop="1">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <f>C23/(Rf+ERP)</f>
+        <v>190.88530894769693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <f>C24*DRATE^5</f>
+        <v>156.90479273420769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C19+C25</f>
+        <v>182.50708312411231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sal.xlsx
+++ b/sal.xlsx
@@ -13,11 +13,13 @@
   </sheets>
   <definedNames>
     <definedName name="BETA">Sheet1!$B$5</definedName>
+    <definedName name="CT">Sheet1!$C$24</definedName>
     <definedName name="DC">Sheet1!$B$2</definedName>
     <definedName name="DRATE">Sheet1!$B$8</definedName>
     <definedName name="EPS0">Sheet1!$C$15</definedName>
     <definedName name="ERP">Sheet1!$B$7</definedName>
     <definedName name="GROW1">Sheet1!$B$3</definedName>
+    <definedName name="GT">Sheet1!$C$23</definedName>
     <definedName name="Rf">Sheet1!$B$6</definedName>
     <definedName name="ROE">Sheet1!$B$1</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ROE</t>
   </si>
@@ -80,6 +82,15 @@
   </si>
   <si>
     <t>Present value</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PV</t>
   </si>
 </sst>
 </file>
@@ -489,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,7 +650,7 @@
         <v>6.9839857248145547</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -667,7 +678,7 @@
         <v>0.8219846440733688</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -696,49 +707,176 @@
         <v>5.7407290202251806</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:10">
       <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3">
+        <f>Rf</f>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <f>Rf+ERP</f>
+        <v>7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <f>H15*(1+Rf)</f>
         <v>15.099027937762827</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D25" s="4">
         <f>EPS0*GROW1^5 *(1+Rf)</f>
         <v>15.099027937762827</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1">
-      <c r="B24" t="s">
+      <c r="F25">
+        <f>H15*(1+GT)</f>
+        <v>15.099027937762827</v>
+      </c>
+      <c r="G25">
+        <f>F25*(1+GT)</f>
+        <v>15.544449261926832</v>
+      </c>
+      <c r="H25">
+        <f>G25*(1+GT)</f>
+        <v>16.003010515153676</v>
+      </c>
+      <c r="I25">
+        <f>H25*(1+GT)</f>
+        <v>16.475099325350712</v>
+      </c>
+      <c r="J25">
+        <f>I25*(1+GT)</f>
+        <v>16.961114755448559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickTop="1">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f>F25*(1-GT/CT)</f>
+        <v>9.4679113238057688</v>
+      </c>
+      <c r="G26">
+        <f>G25*(1-GT/CT)</f>
+        <v>9.7472147078580402</v>
+      </c>
+      <c r="H26">
+        <f>H25*(1-GT/CT)</f>
+        <v>10.034757541739854</v>
+      </c>
+      <c r="I26">
+        <f>I25*(1-GT/CT)</f>
+        <v>10.330782889221179</v>
+      </c>
+      <c r="J26">
+        <f>J25*(1-GT/CT)</f>
+        <v>10.635540984453206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f>H18/(1+CT)</f>
+        <v>0.76173166905140288</v>
+      </c>
+      <c r="G27">
+        <f>F27/(1+CT)</f>
+        <v>0.70589534709610136</v>
+      </c>
+      <c r="H27">
+        <f>G27/(1+CT)</f>
+        <v>0.65415192947465606</v>
+      </c>
+      <c r="I27">
+        <f>H27/(1+CT)</f>
+        <v>0.60620139882740809</v>
+      </c>
+      <c r="J27">
+        <f>I27/(1+CT)</f>
+        <v>0.56176572961487181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <f>F26*F27</f>
+        <v>7.2120078951132456</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:J28" si="1">G26*G27</f>
+        <v>6.8805135094236753</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>6.5642560077394823</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>6.2625350384281315</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>5.974682440980227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3">
-        <f>C23/(Rf+ERP)</f>
+      <c r="C29" s="3">
+        <f>C25/(Rf+ERP)</f>
         <v>190.88530894769693</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3">
-        <f>C24*DRATE^5</f>
+      <c r="C30" s="3">
+        <f>C29*DRATE^5</f>
         <v>156.90479273420769</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3">
-        <f>C19+C25</f>
+      <c r="C33" s="3">
+        <f>C19+C30</f>
         <v>182.50708312411231</v>
       </c>
     </row>
